--- a/Code/Results/Cases/Case_0_233/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_233/res_line/loading_percent.xlsx
@@ -420,23 +420,20 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>14.43120728913514</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>27.17690546817835</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>14.92854664201936</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>121.7835574186947</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.973417244522012</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -447,17 +444,8 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
+        <v>10.06425600158427</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +455,805 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>14.45697686785398</v>
+      </c>
+      <c r="D3">
+        <v>26.82640620861791</v>
+      </c>
+      <c r="E3">
+        <v>14.99234492115868</v>
+      </c>
+      <c r="F3">
+        <v>119.5964016478946</v>
+      </c>
+      <c r="G3">
+        <v>4.003351093073682</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>10.14362058166749</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>14.47994544739155</v>
+      </c>
+      <c r="D4">
+        <v>26.62908585617807</v>
+      </c>
+      <c r="E4">
+        <v>15.03800803910042</v>
+      </c>
+      <c r="F4">
+        <v>118.3303502715811</v>
+      </c>
+      <c r="G4">
+        <v>4.022229002243701</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>10.1952733473398</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>14.4910466991552</v>
+      </c>
+      <c r="D5">
+        <v>26.55305405450106</v>
+      </c>
+      <c r="E5">
+        <v>15.05820796866126</v>
+      </c>
+      <c r="F5">
+        <v>117.8334473084911</v>
+      </c>
+      <c r="G5">
+        <v>4.030054688400899</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>10.21705851586745</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>14.49299366675959</v>
+      </c>
+      <c r="D6">
+        <v>26.54068993074072</v>
+      </c>
+      <c r="E6">
+        <v>15.06165717203722</v>
+      </c>
+      <c r="F6">
+        <v>117.752076868924</v>
+      </c>
+      <c r="G6">
+        <v>4.031362364441981</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>10.22072043632531</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>14.48008818296687</v>
+      </c>
+      <c r="D7">
+        <v>26.62804289750093</v>
+      </c>
+      <c r="E7">
+        <v>15.03827406820305</v>
+      </c>
+      <c r="F7">
+        <v>118.3235722466584</v>
+      </c>
+      <c r="G7">
+        <v>4.022333995106338</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>10.19556416678713</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>14.43857499253297</v>
+      </c>
+      <c r="D8">
+        <v>27.0522680042702</v>
+      </c>
+      <c r="E8">
+        <v>14.94917192909365</v>
+      </c>
+      <c r="F8">
+        <v>121.013285164581</v>
+      </c>
+      <c r="G8">
+        <v>3.983639674409587</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>10.09101508192944</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>14.41656387708949</v>
+      </c>
+      <c r="D9">
+        <v>28.03169088961773</v>
+      </c>
+      <c r="E9">
+        <v>14.82793146985061</v>
+      </c>
+      <c r="F9">
+        <v>126.9126399264988</v>
+      </c>
+      <c r="G9">
+        <v>3.911342905048567</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>9.909132502317602</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>14.44069047635128</v>
+      </c>
+      <c r="D10">
+        <v>28.84957852376685</v>
+      </c>
+      <c r="E10">
+        <v>14.77452806381352</v>
+      </c>
+      <c r="F10">
+        <v>131.6523855158682</v>
+      </c>
+      <c r="G10">
+        <v>3.859829257411303</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>9.789553952611413</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>14.46143595416652</v>
+      </c>
+      <c r="D11">
+        <v>29.24512199796829</v>
+      </c>
+      <c r="E11">
+        <v>14.75875883115051</v>
+      </c>
+      <c r="F11">
+        <v>133.9037686822289</v>
+      </c>
+      <c r="G11">
+        <v>3.836592087831101</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>9.738200466718926</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>14.47079280819573</v>
+      </c>
+      <c r="D12">
+        <v>29.39848745682353</v>
+      </c>
+      <c r="E12">
+        <v>14.75408789645399</v>
+      </c>
+      <c r="F12">
+        <v>134.7707685256237</v>
+      </c>
+      <c r="G12">
+        <v>3.827806509594903</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>9.719192185688636</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>14.46870923397496</v>
+      </c>
+      <c r="D13">
+        <v>29.36529452165315</v>
+      </c>
+      <c r="E13">
+        <v>14.7550347317797</v>
+      </c>
+      <c r="F13">
+        <v>134.5833878964347</v>
+      </c>
+      <c r="G13">
+        <v>3.829698277753297</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>9.723266457245415</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>14.46217507556757</v>
+      </c>
+      <c r="D14">
+        <v>29.25766638481856</v>
+      </c>
+      <c r="E14">
+        <v>14.75834802391531</v>
+      </c>
+      <c r="F14">
+        <v>133.9748026944396</v>
+      </c>
+      <c r="G14">
+        <v>3.835869105772666</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>9.736627857492522</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>14.45837123074459</v>
+      </c>
+      <c r="D15">
+        <v>29.19221416355845</v>
+      </c>
+      <c r="E15">
+        <v>14.76054925826001</v>
+      </c>
+      <c r="F15">
+        <v>133.6039340447684</v>
+      </c>
+      <c r="G15">
+        <v>3.83965025443902</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>9.744869188327533</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>14.43953927320641</v>
+      </c>
+      <c r="D16">
+        <v>28.82421811838736</v>
+      </c>
+      <c r="E16">
+        <v>14.77573633066735</v>
+      </c>
+      <c r="F16">
+        <v>131.5072292446191</v>
+      </c>
+      <c r="G16">
+        <v>3.861350628299073</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>9.792971298518568</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>14.43055381601292</v>
+      </c>
+      <c r="D17">
+        <v>28.60461453118889</v>
+      </c>
+      <c r="E17">
+        <v>14.78728671545205</v>
+      </c>
+      <c r="F17">
+        <v>130.2458446703117</v>
+      </c>
+      <c r="G17">
+        <v>3.874703802598911</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>9.823260093108308</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>14.42629888554783</v>
+      </c>
+      <c r="D18">
+        <v>28.48050063034292</v>
+      </c>
+      <c r="E18">
+        <v>14.79472755209735</v>
+      </c>
+      <c r="F18">
+        <v>129.5292403148401</v>
+      </c>
+      <c r="G18">
+        <v>3.882403677264249</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>9.840967805395286</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>14.42501234257363</v>
+      </c>
+      <c r="D19">
+        <v>28.43884929264879</v>
+      </c>
+      <c r="E19">
+        <v>14.79738170911321</v>
+      </c>
+      <c r="F19">
+        <v>129.2881207632709</v>
+      </c>
+      <c r="G19">
+        <v>3.88501447701973</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>9.847012513745547</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>14.43141515271567</v>
+      </c>
+      <c r="D20">
+        <v>28.62776302323321</v>
+      </c>
+      <c r="E20">
+        <v>14.78597412128632</v>
+      </c>
+      <c r="F20">
+        <v>130.3791941126447</v>
+      </c>
+      <c r="G20">
+        <v>3.873280416434297</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>9.820006155809772</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>14.46405275808412</v>
+      </c>
+      <c r="D21">
+        <v>29.28918036332858</v>
+      </c>
+      <c r="E21">
+        <v>14.75733889069128</v>
+      </c>
+      <c r="F21">
+        <v>134.1531598106525</v>
+      </c>
+      <c r="G21">
+        <v>3.834056333801148</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>9.732691391689158</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>14.49418538998662</v>
+      </c>
+      <c r="D22">
+        <v>29.74245404848831</v>
+      </c>
+      <c r="E22">
+        <v>14.74624646560423</v>
+      </c>
+      <c r="F22">
+        <v>136.7043849711404</v>
+      </c>
+      <c r="G22">
+        <v>3.808493515153019</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>9.678180780241332</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>14.47726285185427</v>
+      </c>
+      <c r="D23">
+        <v>29.49853461969358</v>
+      </c>
+      <c r="E23">
+        <v>14.75144199335634</v>
+      </c>
+      <c r="F23">
+        <v>135.3346955721915</v>
+      </c>
+      <c r="G23">
+        <v>3.822135572480449</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>9.70704005143325</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>14.43102291215998</v>
+      </c>
+      <c r="D24">
+        <v>28.61729094204473</v>
+      </c>
+      <c r="E24">
+        <v>14.78656505766957</v>
+      </c>
+      <c r="F24">
+        <v>130.3188801516996</v>
+      </c>
+      <c r="G24">
+        <v>3.873923856750523</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>9.821476344278548</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>14.41575988605933</v>
+      </c>
+      <c r="D25">
+        <v>27.7501157034359</v>
+      </c>
+      <c r="E25">
+        <v>14.85470693446185</v>
+      </c>
+      <c r="F25">
+        <v>125.2475181486478</v>
+      </c>
+      <c r="G25">
+        <v>3.93057355116105</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>9.955866232676117</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
